--- a/US/data/CBS/NFIB/old/Actual Capital Expenditures.xlsx
+++ b/US/data/CBS/NFIB/old/Actual Capital Expenditures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\US\data\CBS\NFIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D370FA2-64A9-45DB-BF43-DD60FA51B13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3114C689-31D8-4AFB-A72A-8BE7A4336CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="464">
   <si>
     <t>Month/Year</t>
   </si>
@@ -1409,6 +1409,9 @@
   </si>
   <si>
     <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>2022/2/1</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5268,10 +5271,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>463</v>
+      </c>
+      <c r="B432" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>